--- a/ex2.xlsx
+++ b/ex2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlas4\PycharmProjects\Summer_practice\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF2010A-89F7-49E5-8C94-8D1EA981C108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,61 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>СНИЛС</t>
+  </si>
+  <si>
+    <t>ИНН</t>
+  </si>
+  <si>
+    <t>Серия и номер паспорта</t>
+  </si>
+  <si>
+    <t>Сидоров</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>Петр</t>
+  </si>
+  <si>
+    <t>Петрович</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +97,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +400,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>123</v>
+      </c>
+      <c r="E2">
+        <v>44443</v>
+      </c>
+      <c r="F2">
+        <v>8450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>321</v>
+      </c>
+      <c r="E3">
+        <v>654</v>
+      </c>
+      <c r="F3">
+        <v>987</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ex2.xlsx
+++ b/ex2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlas4\PycharmProjects\Summer_practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flown9\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF2010A-89F7-49E5-8C94-8D1EA981C108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98304A17-BD6E-4971-8BD8-D2526B0B0B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Фамилия</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Петрович</t>
+  </si>
+  <si>
+    <t>Сидиков</t>
+  </si>
+  <si>
+    <t>Александрович</t>
   </si>
 </sst>
 </file>
@@ -401,23 +407,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" customWidth="1"/>
+    <col min="6" max="6" width="25.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -457,7 +463,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -475,6 +481,26 @@
       </c>
       <c r="F3">
         <v>987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>99</v>
+      </c>
+      <c r="E4">
+        <v>23321</v>
+      </c>
+      <c r="F4">
+        <v>9778</v>
       </c>
     </row>
   </sheetData>

--- a/ex2.xlsx
+++ b/ex2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flown9\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98304A17-BD6E-4971-8BD8-D2526B0B0B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812E9920-1F8E-401F-86E4-194F676679D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Фамилия</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Сидоров</t>
-  </si>
-  <si>
-    <t>Андрей</t>
   </si>
   <si>
     <t>Андреевич</t>
@@ -410,7 +407,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -448,10 +445,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2">
         <v>123</v>
@@ -465,13 +462,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
       <c r="D3">
         <v>321</v>
@@ -485,13 +482,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4">
         <v>99</v>

--- a/ex2.xlsx
+++ b/ex2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flown9\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812E9920-1F8E-401F-86E4-194F676679D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC69C408-4181-4C95-8FBC-B013D78C682F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="9766" windowHeight="11363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Фамилия</t>
   </si>
@@ -33,37 +33,28 @@
     <t>Имя</t>
   </si>
   <si>
-    <t>Отчество</t>
-  </si>
-  <si>
     <t>СНИЛС</t>
   </si>
   <si>
     <t>ИНН</t>
   </si>
   <si>
-    <t>Серия и номер паспорта</t>
-  </si>
-  <si>
     <t>Сидоров</t>
   </si>
   <si>
-    <t>Андреевич</t>
-  </si>
-  <si>
     <t>Петров</t>
   </si>
   <si>
     <t>Петр</t>
   </si>
   <si>
-    <t>Петрович</t>
-  </si>
-  <si>
     <t>Сидиков</t>
   </si>
   <si>
-    <t>Александрович</t>
+    <t>Антонов</t>
+  </si>
+  <si>
+    <t>Антон</t>
   </si>
 </sst>
 </file>
@@ -404,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -433,71 +424,62 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
+      <c r="C2">
+        <v>123</v>
       </c>
       <c r="D2">
-        <v>123</v>
-      </c>
-      <c r="E2">
         <v>44443</v>
-      </c>
-      <c r="F2">
-        <v>8450</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>321</v>
       </c>
       <c r="D3">
-        <v>321</v>
-      </c>
-      <c r="E3">
         <v>654</v>
-      </c>
-      <c r="F3">
-        <v>987</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>99</v>
+      </c>
+      <c r="D4">
+        <v>23321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>99</v>
-      </c>
-      <c r="E4">
-        <v>23321</v>
-      </c>
-      <c r="F4">
-        <v>9778</v>
+      <c r="C5">
+        <v>222</v>
+      </c>
+      <c r="D5">
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/ex2.xlsx
+++ b/ex2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flown9\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC69C408-4181-4C95-8FBC-B013D78C682F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695406DC-EC75-470B-9D55-10533AAEFEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="9766" windowHeight="11363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="11363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,43 +25,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Фамилия</t>
   </si>
   <si>
-    <t>Имя</t>
-  </si>
-  <si>
     <t>СНИЛС</t>
   </si>
   <si>
-    <t>ИНН</t>
-  </si>
-  <si>
     <t>Сидоров</t>
   </si>
   <si>
     <t>Петров</t>
   </si>
   <si>
-    <t>Петр</t>
-  </si>
-  <si>
-    <t>Сидиков</t>
-  </si>
-  <si>
-    <t>Антонов</t>
-  </si>
-  <si>
-    <t>Антон</t>
+    <t>999-888-777 66</t>
+  </si>
+  <si>
+    <t>111-222-333 44</t>
+  </si>
+  <si>
+    <t>Омск</t>
+  </si>
+  <si>
+    <t>Город</t>
+  </si>
+  <si>
+    <t>Москва</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +70,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,10 +115,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -412,75 +426,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-      <c r="D2">
-        <v>44443</v>
-      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>321</v>
-      </c>
-      <c r="D3">
-        <v>654</v>
-      </c>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>99</v>
-      </c>
-      <c r="D4">
-        <v>23321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>222</v>
-      </c>
-      <c r="D5">
-        <v>333</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ex2.xlsx
+++ b/ex2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flown9\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695406DC-EC75-470B-9D55-10533AAEFEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD14E21-A9FF-430E-8885-70BB386FE492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="11363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,13 +45,13 @@
     <t>111-222-333 44</t>
   </si>
   <si>
-    <t>Омск</t>
-  </si>
-  <si>
     <t>Город</t>
   </si>
   <si>
     <t>Москва</t>
+  </si>
+  <si>
+    <t>Челябинск</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3"/>
       <c r="F1" s="1"/>
@@ -446,7 +446,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -458,7 +458,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4"/>
     </row>

--- a/ex2.xlsx
+++ b/ex2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flown9\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD14E21-A9FF-430E-8885-70BB386FE492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61794122-3B31-4659-87F3-8F20BC0228F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="11363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="3308" windowWidth="14400" windowHeight="8182" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>Москва</t>
   </si>
   <si>
-    <t>Челябинск</t>
+    <t>Омск</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/ex2.xlsx
+++ b/ex2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flown9\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61794122-3B31-4659-87F3-8F20BC0228F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D1A9FB-C686-45F4-A469-4595DCFD88BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="3308" windowWidth="14400" windowHeight="8182" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3488" yWindow="3098" windowWidth="14400" windowHeight="8182" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Фамилия</t>
   </si>
@@ -52,6 +53,9 @@
   </si>
   <si>
     <t>Омск</t>
+  </si>
+  <si>
+    <t>Биба</t>
   </si>
 </sst>
 </file>
@@ -411,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -471,4 +475,41 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A92CC76-72FC-4E8F-9754-CE1DF9394838}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ex2.xlsx
+++ b/ex2.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flown9\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D1A9FB-C686-45F4-A469-4595DCFD88BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC01286-C123-4949-9EEC-2A64E278E3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3488" yWindow="3098" windowWidth="14400" windowHeight="8182" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="11363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Фамилия</t>
   </si>
@@ -34,28 +33,40 @@
     <t>СНИЛС</t>
   </si>
   <si>
-    <t>Сидоров</t>
-  </si>
-  <si>
     <t>Петров</t>
   </si>
   <si>
-    <t>999-888-777 66</t>
-  </si>
-  <si>
-    <t>111-222-333 44</t>
-  </si>
-  <si>
-    <t>Город</t>
-  </si>
-  <si>
-    <t>Москва</t>
-  </si>
-  <si>
-    <t>Омск</t>
-  </si>
-  <si>
-    <t>Биба</t>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>ДатаРождения</t>
+  </si>
+  <si>
+    <t>111-111-111 11</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>222-222-222 22</t>
+  </si>
+  <si>
+    <t>Петр</t>
+  </si>
+  <si>
+    <t>333-333-333 33</t>
+  </si>
+  <si>
+    <t>Сидор</t>
+  </si>
+  <si>
+    <t>Мешков</t>
+  </si>
+  <si>
+    <t>Валерий</t>
   </si>
 </sst>
 </file>
@@ -119,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -130,7 +141,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -413,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -429,84 +441,75 @@
     <col min="6" max="6" width="25.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="5">
+        <v>36526</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>36924</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5">
+        <v>37318</v>
+      </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A92CC76-72FC-4E8F-9754-CE1DF9394838}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>1234</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>5555</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4">
+        <v>37715</v>
       </c>
     </row>
   </sheetData>

--- a/ex2.xlsx
+++ b/ex2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flown9\PycharmProjects\PythonProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlas4\PycharmProjects\Summer_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC01286-C123-4949-9EEC-2A64E278E3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD56D7F-D70F-4FBA-9B22-90BB8F6E48A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="11363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10185" yWindow="2280" windowWidth="20895" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Фамилия</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>111-111-111 11</t>
-  </si>
-  <si>
-    <t>Иван</t>
   </si>
   <si>
     <t>Иванов</t>
@@ -428,20 +425,20 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" customWidth="1"/>
-    <col min="6" max="6" width="25.3984375" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -456,26 +453,24 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="5">
         <v>36526</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -484,29 +479,29 @@
         <v>36924</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5">
         <v>37318</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5555</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4">
         <v>37715</v>

--- a/ex2.xlsx
+++ b/ex2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlas4\PycharmProjects\Summer_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD56D7F-D70F-4FBA-9B22-90BB8F6E48A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FFB5DC-DD21-4477-B35D-C11A8D8A1F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10185" yWindow="2280" windowWidth="20895" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12045" yWindow="3225" windowWidth="20895" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Иванов</t>
   </si>
   <si>
-    <t>222-222-222 22</t>
-  </si>
-  <si>
     <t>Петр</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Валерий</t>
+  </si>
+  <si>
+    <t>222-222-222 229</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,10 +467,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -481,10 +481,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -498,10 +498,10 @@
         <v>5555</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4">
         <v>37715</v>
